--- a/data/s_vals/2021/weigel_patrick.xlsx
+++ b/data/s_vals/2021/weigel_patrick.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.510684949326435</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C2" t="n">
-        <v>34.179517850415</v>
+        <v>2919.202174992006</v>
       </c>
       <c r="D2" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.69391567093032</v>
+        <v>2952.437384124388</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2021/weigel_patrick.xlsx
+++ b/data/s_vals/2021/weigel_patrick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -488,6 +493,9 @@
       </c>
       <c r="G2" t="n">
         <v>2952.437384124388</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
